--- a/qualtcom/Procesos/Calidad/Checklist_Auditoría-150625.xlsx
+++ b/qualtcom/Procesos/Calidad/Checklist_Auditoría-150625.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="585" windowWidth="15615" windowHeight="7095"/>
+    <workbookView xWindow="420" yWindow="585" windowWidth="15615" windowHeight="7095" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="125">
   <si>
     <t>DATOS GENERALES</t>
   </si>
@@ -374,9 +374,6 @@
     <t>No, por no contar con la fecha de compromiso en los tickets 40,41,42, 43,44,45</t>
   </si>
   <si>
-    <t>Al momento de la auditoría no se ha realizado ya que la fecha de planeacion es para el día 29 de junio</t>
-  </si>
-  <si>
     <t>Falta actualizar el Catálogo de Servicios con el nuevo servicio que se agregó(Mantenimiento de impresoras)</t>
   </si>
   <si>
@@ -399,12 +396,6 @@
   </si>
   <si>
     <t>Junio 29, 2015</t>
-  </si>
-  <si>
-    <t>No se realizó el respaldo por equipo(Copia de Seguridad) debido a que la auditoría se realizó antes de la fecha de cierre del mes</t>
-  </si>
-  <si>
-    <t>No se realizó la limpieza por equipo(Revisión por instalación, desfragmentación del disco duro, Liberación de espacion en disco duro, Ejecución de Antivirus) debido a que la auditoría se realizó antes de la fecha de cierre del mes</t>
   </si>
   <si>
     <t>Junio 25,2015</t>
@@ -896,6 +887,15 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,15 +961,6 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1289,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1309,73 +1300,73 @@
     <row r="1" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="2"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6" ht="13.9" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
@@ -1419,11 +1410,11 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1">
@@ -1481,11 +1472,11 @@
     </row>
     <row r="21" spans="2:8" ht="19.5" customHeight="1"/>
     <row r="22" spans="2:8" s="5" customFormat="1" ht="15.75">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -1549,11 +1540,11 @@
     </row>
     <row r="28" spans="2:8" s="5" customFormat="1" ht="13.9" customHeight="1"/>
     <row r="29" spans="2:8" s="5" customFormat="1" ht="14.45" customHeight="1">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="2:8" s="5" customFormat="1" ht="12.75">
@@ -1648,18 +1639,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" customHeight="1">
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="C2" s="51"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1776,18 +1767,18 @@
       <c r="G10" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="C13" s="51"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="20" t="s">
         <v>18</v>
       </c>
@@ -1879,18 +1870,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:1024">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="18"/>
     </row>
     <row r="2" spans="2:1024">
-      <c r="B2" s="59"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="20" t="s">
         <v>18</v>
       </c>
@@ -15276,14 +15267,14 @@
       <c r="AMJ15" s="17"/>
     </row>
     <row r="16" spans="2:1024" customFormat="1">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -16305,7 +16296,7 @@
       <c r="AMJ16" s="17"/>
     </row>
     <row r="17" spans="2:1024" customFormat="1">
-      <c r="B17" s="59"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="20" t="s">
         <v>18</v>
       </c>
@@ -25564,14 +25555,14 @@
       <c r="AMJ25" s="17"/>
     </row>
     <row r="26" spans="2:1024" customFormat="1">
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="18"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -26593,7 +26584,7 @@
       <c r="AMJ26" s="17"/>
     </row>
     <row r="27" spans="2:1024" customFormat="1" ht="18" customHeight="1">
-      <c r="B27" s="59"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="20" t="s">
         <v>18</v>
       </c>
@@ -31743,7 +31734,7 @@
       <c r="B32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="47" t="s">
         <v>113</v>
       </c>
       <c r="D32" s="16"/>
@@ -32773,7 +32764,7 @@
       <c r="B33" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="47" t="s">
         <v>113</v>
       </c>
       <c r="D33" s="16"/>
@@ -32781,18 +32772,18 @@
       <c r="F33" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="B36" s="55"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="43" t="s">
         <v>18</v>
       </c>
@@ -32802,13 +32793,13 @@
       <c r="E36" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="57"/>
+      <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6">
       <c r="B37" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="48" t="s">
         <v>113</v>
       </c>
       <c r="D37" s="42"/>
@@ -32819,7 +32810,7 @@
       <c r="B38" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="48" t="s">
         <v>113</v>
       </c>
       <c r="D38" s="42"/>
@@ -32830,7 +32821,7 @@
       <c r="B39" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="48" t="s">
         <v>113</v>
       </c>
       <c r="D39" s="42"/>
@@ -32841,7 +32832,7 @@
       <c r="B40" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="48" t="s">
         <v>113</v>
       </c>
       <c r="D40" s="42"/>
@@ -32852,12 +32843,12 @@
       <c r="B41" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="42"/>
-      <c r="F41" s="73" t="s">
+      <c r="F41" s="49" t="s">
         <v>114</v>
       </c>
     </row>
@@ -32865,12 +32856,12 @@
       <c r="B42" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72" t="s">
+      <c r="C42" s="48"/>
+      <c r="D42" s="48" t="s">
         <v>113</v>
       </c>
       <c r="E42" s="42"/>
-      <c r="F42" s="73" t="s">
+      <c r="F42" s="49" t="s">
         <v>115</v>
       </c>
     </row>
@@ -32878,10 +32869,10 @@
       <c r="B43" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="72"/>
+      <c r="D43" s="48"/>
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
     </row>
@@ -32921,16 +32912,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:1024" customFormat="1" ht="14.45" customHeight="1">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="17"/>
@@ -33952,8 +33943,8 @@
       <c r="AMJ2" s="17"/>
     </row>
     <row r="3" spans="2:1024" customFormat="1">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="25" t="s">
         <v>50</v>
       </c>
@@ -33963,7 +33954,7 @@
       <c r="F3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -34983,10 +34974,10 @@
       <c r="AMJ3" s="17"/>
     </row>
     <row r="4" spans="2:1024" customFormat="1">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="27"/>
@@ -39103,10 +39094,10 @@
       <c r="AMJ7" s="17"/>
     </row>
     <row r="8" spans="2:1024" customFormat="1">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
@@ -40186,10 +40177,10 @@
       <c r="G12" s="29"/>
     </row>
     <row r="13" spans="2:1024" s="31" customFormat="1">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
@@ -40211,10 +40202,10 @@
     </row>
     <row r="15" spans="2:1024" s="31" customFormat="1"/>
     <row r="16" spans="2:1024" s="31" customFormat="1">
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="4:6" s="31" customFormat="1"/>
     <row r="18" spans="4:6" s="31" customFormat="1">
@@ -40237,10 +40228,10 @@
     <row r="31" spans="4:6" s="31" customFormat="1"/>
     <row r="32" spans="4:6" s="31" customFormat="1"/>
     <row r="33" spans="3:6" s="31" customFormat="1">
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
     </row>
     <row r="34" spans="3:6" s="31" customFormat="1"/>
     <row r="35" spans="3:6" s="31" customFormat="1">
@@ -40259,10 +40250,10 @@
     <row r="44" spans="3:6" s="31" customFormat="1"/>
     <row r="45" spans="3:6" s="31" customFormat="1"/>
     <row r="46" spans="3:6" s="31" customFormat="1">
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
     </row>
     <row r="47" spans="3:6" s="31" customFormat="1"/>
     <row r="48" spans="3:6" s="31" customFormat="1">
@@ -40276,10 +40267,10 @@
     <row r="52" spans="3:6" s="31" customFormat="1"/>
     <row r="53" spans="3:6" s="31" customFormat="1"/>
     <row r="54" spans="3:6" s="31" customFormat="1">
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
     </row>
     <row r="55" spans="3:6" s="31" customFormat="1"/>
     <row r="56" spans="3:6" s="31" customFormat="1">
@@ -40296,10 +40287,10 @@
     <row r="63" spans="3:6" s="31" customFormat="1"/>
     <row r="64" spans="3:6" s="31" customFormat="1"/>
     <row r="65" spans="3:6" s="31" customFormat="1">
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
     </row>
     <row r="66" spans="3:6" s="31" customFormat="1"/>
     <row r="67" spans="3:6" s="31" customFormat="1">
@@ -40315,10 +40306,10 @@
     <row r="73" spans="3:6" s="31" customFormat="1"/>
     <row r="74" spans="3:6" s="31" customFormat="1"/>
     <row r="75" spans="3:6" s="31" customFormat="1">
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
     </row>
     <row r="76" spans="3:6" s="31" customFormat="1"/>
     <row r="77" spans="3:6" s="31" customFormat="1">
@@ -40347,10 +40338,10 @@
     <row r="96" s="31" customFormat="1"/>
     <row r="97" spans="3:6" s="31" customFormat="1"/>
     <row r="98" spans="3:6" s="31" customFormat="1">
-      <c r="C98" s="61"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
     </row>
     <row r="99" spans="3:6" s="31" customFormat="1"/>
     <row r="100" spans="3:6" s="31" customFormat="1">
@@ -40368,10 +40359,10 @@
     <row r="108" spans="3:6" s="31" customFormat="1"/>
     <row r="109" spans="3:6" s="31" customFormat="1"/>
     <row r="110" spans="3:6" s="31" customFormat="1">
-      <c r="C110" s="61"/>
-      <c r="D110" s="61"/>
-      <c r="E110" s="61"/>
-      <c r="F110" s="61"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
     </row>
     <row r="111" spans="3:6" s="31" customFormat="1"/>
     <row r="112" spans="3:6" s="31" customFormat="1">
@@ -40393,10 +40384,10 @@
     <row r="124" spans="3:6" s="31" customFormat="1"/>
     <row r="125" spans="3:6" s="31" customFormat="1"/>
     <row r="126" spans="3:6" s="31" customFormat="1">
-      <c r="C126" s="61"/>
-      <c r="D126" s="61"/>
-      <c r="E126" s="61"/>
-      <c r="F126" s="61"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="64"/>
     </row>
     <row r="127" spans="3:6" s="31" customFormat="1"/>
     <row r="128" spans="3:6" s="31" customFormat="1">
@@ -40486,11 +40477,6 @@
     <row r="208" s="31" customFormat="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C126:F126"/>
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -40502,6 +40488,11 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C126:F126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.1437007874015748" bottom="1.1437007874015748" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -40514,7 +40505,7 @@
   <dimension ref="A2:AMJ213"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G15" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -40528,22 +40519,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="25" t="s">
         <v>50</v>
       </c>
@@ -40553,13 +40544,13 @@
       <c r="F3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="27"/>
@@ -40623,10 +40614,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9"/>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -40705,7 +40696,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" ht="38.25">
+    <row r="15" spans="1:7">
       <c r="A15"/>
       <c r="B15" s="28">
         <v>6</v>
@@ -40713,14 +40704,12 @@
       <c r="C15" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="30" t="s">
         <v>113</v>
       </c>
+      <c r="E15" s="30"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="29" t="s">
-        <v>116</v>
-      </c>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" ht="38.25">
       <c r="A16"/>
@@ -40730,20 +40719,18 @@
       <c r="C16" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="30" t="s">
         <v>113</v>
       </c>
+      <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="29" t="s">
-        <v>116</v>
-      </c>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="2:7" s="31" customFormat="1">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -40809,10 +40796,10 @@
     <row r="23" spans="2:7" s="31" customFormat="1"/>
     <row r="24" spans="2:7" s="31" customFormat="1"/>
     <row r="25" spans="2:7" s="31" customFormat="1">
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
     </row>
     <row r="26" spans="2:7" s="31" customFormat="1"/>
     <row r="27" spans="2:7" s="31" customFormat="1">
@@ -40831,10 +40818,10 @@
     <row r="36" spans="3:6" s="31" customFormat="1"/>
     <row r="37" spans="3:6" s="31" customFormat="1"/>
     <row r="38" spans="3:6" s="31" customFormat="1">
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
     </row>
     <row r="39" spans="3:6" s="31" customFormat="1"/>
     <row r="40" spans="3:6" s="31" customFormat="1">
@@ -40848,10 +40835,10 @@
     <row r="44" spans="3:6" s="31" customFormat="1"/>
     <row r="45" spans="3:6" s="31" customFormat="1"/>
     <row r="46" spans="3:6" s="31" customFormat="1">
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
     </row>
     <row r="47" spans="3:6" s="31" customFormat="1"/>
     <row r="48" spans="3:6" s="31" customFormat="1">
@@ -40868,10 +40855,10 @@
     <row r="55" spans="3:6" s="31" customFormat="1"/>
     <row r="56" spans="3:6" s="31" customFormat="1"/>
     <row r="57" spans="3:6" s="31" customFormat="1">
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
     </row>
     <row r="58" spans="3:6" s="31" customFormat="1"/>
     <row r="59" spans="3:6" s="31" customFormat="1">
@@ -40887,10 +40874,10 @@
     <row r="65" spans="3:6" s="31" customFormat="1"/>
     <row r="66" spans="3:6" s="31" customFormat="1"/>
     <row r="67" spans="3:6" s="31" customFormat="1">
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
     </row>
     <row r="68" spans="3:6" s="31" customFormat="1"/>
     <row r="69" spans="3:6" s="31" customFormat="1">
@@ -40919,10 +40906,10 @@
     <row r="88" spans="3:6" s="31" customFormat="1"/>
     <row r="89" spans="3:6" s="31" customFormat="1"/>
     <row r="90" spans="3:6" s="31" customFormat="1">
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
     </row>
     <row r="91" spans="3:6" s="31" customFormat="1"/>
     <row r="92" spans="3:6" s="31" customFormat="1">
@@ -40940,10 +40927,10 @@
     <row r="100" spans="3:6" s="31" customFormat="1"/>
     <row r="101" spans="3:6" s="31" customFormat="1"/>
     <row r="102" spans="3:6" s="31" customFormat="1">
-      <c r="C102" s="61"/>
-      <c r="D102" s="61"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="61"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
     </row>
     <row r="103" spans="3:6" s="31" customFormat="1"/>
     <row r="104" spans="3:6" s="31" customFormat="1">
@@ -40965,10 +40952,10 @@
     <row r="116" spans="3:6" s="31" customFormat="1"/>
     <row r="117" spans="3:6" s="31" customFormat="1"/>
     <row r="118" spans="3:6" s="31" customFormat="1">
-      <c r="C118" s="61"/>
-      <c r="D118" s="61"/>
-      <c r="E118" s="61"/>
-      <c r="F118" s="61"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="64"/>
     </row>
     <row r="119" spans="3:6" s="31" customFormat="1"/>
     <row r="120" spans="3:6" s="31" customFormat="1">
@@ -41071,6 +41058,12 @@
     <row r="213" s="31" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="C90:F90"/>
     <mergeCell ref="C102:F102"/>
     <mergeCell ref="C118:F118"/>
@@ -41080,12 +41073,6 @@
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="C57:F57"/>
     <mergeCell ref="C67:F67"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.1437007874015748" bottom="1.1437007874015748" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -41097,8 +41084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -41115,24 +41102,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15.6" customHeight="1">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="2:8" ht="30">
       <c r="B5" s="41" t="s">
@@ -41162,22 +41149,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>112</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30">
@@ -41185,17 +41172,17 @@
         <v>2</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -41204,56 +41191,36 @@
         <v>3</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="38.25">
-      <c r="B9" s="16">
-        <v>4</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>124</v>
-      </c>
+    <row r="9" spans="2:8">
+      <c r="B9" s="16"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="2:8" ht="63.75">
-      <c r="B10" s="16">
-        <v>5</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>124</v>
-      </c>
+    <row r="10" spans="2:8">
+      <c r="B10" s="16"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="2:8">

--- a/qualtcom/Procesos/Calidad/Checklist_Auditoría-150625.xlsx
+++ b/qualtcom/Procesos/Calidad/Checklist_Auditoría-150625.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\qtp\qualtcom\Procesos\Calidad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="585" windowWidth="15615" windowHeight="7095" activeTab="5"/>
+    <workbookView xWindow="420" yWindow="588" windowWidth="15612" windowHeight="7092"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
     <sheet name="Funcional" sheetId="5" r:id="rId5"/>
     <sheet name="No Conformidades" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
   <si>
     <t>DATOS GENERALES</t>
   </si>
@@ -374,6 +369,9 @@
     <t>No, por no contar con la fecha de compromiso en los tickets 40,41,42, 43,44,45</t>
   </si>
   <si>
+    <t>Al momento de la auditoría no se ha realizado ya que la fecha de planeacion es para el día 29 de junio</t>
+  </si>
+  <si>
     <t>Falta actualizar el Catálogo de Servicios con el nuevo servicio que se agregó(Mantenimiento de impresoras)</t>
   </si>
   <si>
@@ -396,6 +394,12 @@
   </si>
   <si>
     <t>Junio 29, 2015</t>
+  </si>
+  <si>
+    <t>No se realizó el respaldo por equipo(Copia de Seguridad) debido a que la auditoría se realizó antes de la fecha de cierre del mes</t>
+  </si>
+  <si>
+    <t>No se realizó la limpieza por equipo(Revisión por instalación, desfragmentación del disco duro, Liberación de espacion en disco duro, Ejecución de Antivirus) debido a que la auditoría se realizó antes de la fecha de cierre del mes</t>
   </si>
   <si>
     <t>Junio 25,2015</t>
@@ -781,7 +785,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -866,9 +870,6 @@
     </xf>
     <xf numFmtId="165" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -962,6 +963,24 @@
     <xf numFmtId="165" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="ConditionalStyle_1" xfId="1"/>
@@ -1034,7 +1053,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1069,7 +1088,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1278,95 +1297,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ35"/>
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
-    <col min="9" max="1024" width="11.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="11.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="2"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="B4" s="50" t="s">
+    <row r="4" spans="1:6" ht="15.6">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1">
+    <row r="6" spans="1:6" ht="13.95" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
@@ -1410,11 +1429,11 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1">
@@ -1457,156 +1476,170 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B20" s="39" t="str">
+      <c r="B20" s="73" t="str">
         <f>Producto!B26</f>
         <v>Estimación</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="74">
         <f>COUNTA(Producto!C28:C33)</f>
         <v>6</v>
       </c>
-      <c r="D20" s="10">
-        <f>COUNTIF((Producto!C28:C33),"x")/(COUNTIF((Producto!C28:C33),"x")+COUNTIF((Proceso!D28:D33),"x"))</f>
+      <c r="D20" s="75">
+        <f>COUNTIF((Producto!C28:C33),"x")/(COUNTIF((Producto!C28:C33),"x")+COUNTIF((Producto!D28:D33),"x"))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="19.5" customHeight="1"/>
-    <row r="22" spans="2:8" s="5" customFormat="1" ht="15.75">
-      <c r="B22" s="50" t="s">
+    <row r="21" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B21" s="76" t="str">
+        <f>Producto!B35</f>
+        <v xml:space="preserve">Ticket de servicio </v>
+      </c>
+      <c r="C21" s="77">
+        <f>COUNTA(Producto!C37:C43)</f>
+        <v>5</v>
+      </c>
+      <c r="D21" s="78">
+        <f>COUNTIF((Producto!C37:C43),"x")/(COUNTIF((Producto!C37:C43),"x")+COUNTIF((Producto!C37:C43),"x"))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="19.5" customHeight="1"/>
+    <row r="23" spans="2:8" s="5" customFormat="1" ht="15.6">
+      <c r="B23" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
-    <row r="23" spans="2:8" s="5" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B23" s="6" t="s">
+    <row r="24" spans="2:8" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="5" customFormat="1" ht="12.75">
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="2:8" s="5" customFormat="1" ht="13.8">
+      <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C25" s="9">
         <f>COUNTA(Fisica!D5:D7)</f>
         <v>3</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <f>COUNTIF((Fisica!D5:D7),"x")/(COUNTIF((Fisica!D5:D7),"x")+COUNTIF((Fisica!E5:E7),"x"))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="5" customFormat="1" ht="12.75">
-      <c r="B25" s="8" t="s">
+    <row r="26" spans="2:8" s="5" customFormat="1" ht="13.8">
+      <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C26" s="9">
         <f>COUNTA(Fisica!D9:D12)</f>
         <v>4</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <f>COUNTIF((Fisica!D9:D12),"x")/(COUNTIF((Fisica!D9:D12),"x")+COUNTIF((Fisica!E9:E12),"x"))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="5" customFormat="1" ht="12.75">
-      <c r="B26" s="8" t="s">
+    <row r="27" spans="2:8" s="5" customFormat="1" ht="13.8">
+      <c r="B27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C27" s="9">
         <f>COUNTA(Fisica!D14:D14)</f>
         <v>1</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <f>COUNTIF((Fisica!D14),"x")/(COUNTIF((Fisica!D14),"x")+COUNTIF((Fisica!E14),"x"))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="5" customFormat="1" ht="12.75">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+    <row r="28" spans="2:8" s="5" customFormat="1" ht="13.8">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
     </row>
-    <row r="28" spans="2:8" s="5" customFormat="1" ht="13.9" customHeight="1"/>
-    <row r="29" spans="2:8" s="5" customFormat="1" ht="14.45" customHeight="1">
-      <c r="B29" s="50" t="s">
+    <row r="29" spans="2:8" s="5" customFormat="1" ht="13.95" customHeight="1"/>
+    <row r="30" spans="2:8" s="5" customFormat="1" ht="14.4" customHeight="1">
+      <c r="B30" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="14"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="14"/>
     </row>
-    <row r="30" spans="2:8" s="5" customFormat="1" ht="12.75">
-      <c r="B30" s="6" t="s">
+    <row r="31" spans="2:8" s="5" customFormat="1" ht="13.8">
+      <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E31" s="15"/>
     </row>
-    <row r="31" spans="2:8" s="5" customFormat="1" ht="12.75">
-      <c r="B31" s="8" t="s">
+    <row r="32" spans="2:8" s="5" customFormat="1" ht="13.8">
+      <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C32" s="9">
         <f>COUNTA(Funcional!D5:D8)</f>
         <v>4</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <f>COUNTIF((Funcional!D5:D8),"x")/(COUNTIF((Funcional!D5:D8),"x")+COUNTIF((Funcional!E5:E8),"x"))</f>
         <v>1</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E32" s="15"/>
     </row>
-    <row r="32" spans="2:8" s="5" customFormat="1" ht="12.75">
-      <c r="B32" s="8" t="s">
+    <row r="33" spans="2:4" s="5" customFormat="1" ht="13.8">
+      <c r="B33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C33" s="9">
         <f>COUNTA(Funcional!D10:D14)</f>
         <v>5</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <f>COUNTIF((Funcional!D10:D14),"x")/(COUNTIF((Funcional!D10:D14),"x")+COUNTIF((Funcional!E10:E14),"x"))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="5" customFormat="1" ht="12.75">
-      <c r="B33" s="8" t="s">
+    <row r="34" spans="2:4" s="5" customFormat="1" ht="13.8">
+      <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C34" s="9">
         <f>COUNTA(Funcional!D18:D21)</f>
         <v>4</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <f>COUNTIF((Funcional!D18:D21),"x")/(COUNTIF((Funcional!D18:D21),"x")+COUNTIF((Funcional!E18:E21),"x"))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="5" customFormat="1" ht="12.75"/>
-    <row r="35" spans="2:4" s="5" customFormat="1" ht="12.75"/>
+    <row r="35" spans="2:4" s="5" customFormat="1" ht="13.8"/>
+    <row r="36" spans="2:4" s="5" customFormat="1" ht="13.8"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="C5:F5"/>
@@ -1628,29 +1661,29 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="17" customWidth="1"/>
     <col min="2" max="2" width="3" style="17" customWidth="1"/>
-    <col min="3" max="3" width="88.85546875" style="17" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" style="17" customWidth="1"/>
-    <col min="8" max="1024" width="11.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="88.88671875" style="17" customWidth="1"/>
+    <col min="4" max="6" width="11.88671875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" style="17" customWidth="1"/>
+    <col min="8" max="1024" width="11.88671875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" customHeight="1">
-      <c r="C1" s="53" t="s">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1">
+      <c r="C1" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="C2" s="54"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1665,7 +1698,7 @@
     <row r="3" spans="1:7">
       <c r="A3"/>
       <c r="B3"/>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="22" t="s">
@@ -1767,18 +1800,18 @@
       <c r="G10" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="C13" s="54"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="20" t="s">
         <v>18</v>
       </c>
@@ -1791,7 +1824,7 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -1802,7 +1835,7 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>107</v>
       </c>
       <c r="D15" s="22" t="s">
@@ -1813,7 +1846,7 @@
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>108</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -1856,32 +1889,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="17" customWidth="1"/>
-    <col min="2" max="2" width="96.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" style="17" customWidth="1"/>
-    <col min="7" max="1024" width="11.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="96.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" style="17" customWidth="1"/>
+    <col min="7" max="1024" width="11.88671875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:1024">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="18"/>
     </row>
     <row r="2" spans="2:1024">
-      <c r="B2" s="62"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="20" t="s">
         <v>18</v>
       </c>
@@ -15267,14 +15300,14 @@
       <c r="AMJ15" s="17"/>
     </row>
     <row r="16" spans="2:1024" customFormat="1">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -16296,7 +16329,7 @@
       <c r="AMJ16" s="17"/>
     </row>
     <row r="17" spans="2:1024" customFormat="1">
-      <c r="B17" s="62"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="20" t="s">
         <v>18</v>
       </c>
@@ -25555,14 +25588,14 @@
       <c r="AMJ25" s="17"/>
     </row>
     <row r="26" spans="2:1024" customFormat="1">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
       <c r="F26" s="18"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -26584,7 +26617,7 @@
       <c r="AMJ26" s="17"/>
     </row>
     <row r="27" spans="2:1024" customFormat="1" ht="18" customHeight="1">
-      <c r="B27" s="62"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="20" t="s">
         <v>18</v>
       </c>
@@ -31734,7 +31767,7 @@
       <c r="B32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="46" t="s">
         <v>113</v>
       </c>
       <c r="D32" s="16"/>
@@ -32764,7 +32797,7 @@
       <c r="B33" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="46" t="s">
         <v>113</v>
       </c>
       <c r="D33" s="16"/>
@@ -32772,109 +32805,109 @@
       <c r="F33" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="60"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="B36" s="58"/>
-      <c r="C36" s="43" t="s">
+      <c r="B36" s="57"/>
+      <c r="C36" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="60"/>
+      <c r="F36" s="59"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
     </row>
-    <row r="41" spans="1:6" ht="30">
-      <c r="B41" s="45" t="s">
+    <row r="41" spans="1:6" ht="28.8">
+      <c r="B41" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="49" t="s">
+      <c r="E41" s="41"/>
+      <c r="F41" s="48" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30">
-      <c r="B42" s="45" t="s">
+    <row r="42" spans="1:6" ht="28.8">
+      <c r="B42" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="49" t="s">
+      <c r="E42" s="41"/>
+      <c r="F42" s="48" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -32902,26 +32935,26 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="3" style="17" customWidth="1"/>
-    <col min="3" max="3" width="103.7109375" style="17" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" style="17" customWidth="1"/>
-    <col min="8" max="1024" width="11.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="103.6640625" style="17" customWidth="1"/>
+    <col min="4" max="6" width="11.88671875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" style="17" customWidth="1"/>
+    <col min="8" max="1024" width="11.88671875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:1024" customFormat="1" ht="14.45" customHeight="1">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66" t="s">
+    <row r="2" spans="2:1024" customFormat="1" ht="14.4" customHeight="1">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="17"/>
@@ -33943,8 +33976,8 @@
       <c r="AMJ2" s="17"/>
     </row>
     <row r="3" spans="2:1024" customFormat="1">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="25" t="s">
         <v>50</v>
       </c>
@@ -33954,7 +33987,7 @@
       <c r="F3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -34974,10 +35007,10 @@
       <c r="AMJ3" s="17"/>
     </row>
     <row r="4" spans="2:1024" customFormat="1">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="27"/>
@@ -36000,7 +36033,7 @@
       <c r="AMI4" s="17"/>
       <c r="AMJ4" s="17"/>
     </row>
-    <row r="5" spans="2:1024" customFormat="1" ht="26.25">
+    <row r="5" spans="2:1024" customFormat="1" ht="27">
       <c r="B5" s="28">
         <v>1</v>
       </c>
@@ -37031,7 +37064,7 @@
       <c r="AMI5" s="17"/>
       <c r="AMJ5" s="17"/>
     </row>
-    <row r="6" spans="2:1024" customFormat="1" ht="26.25">
+    <row r="6" spans="2:1024" customFormat="1" ht="27">
       <c r="B6" s="28">
         <v>2</v>
       </c>
@@ -38062,7 +38095,7 @@
       <c r="AMI6" s="17"/>
       <c r="AMJ6" s="17"/>
     </row>
-    <row r="7" spans="2:1024" customFormat="1" ht="26.25">
+    <row r="7" spans="2:1024" customFormat="1" ht="27">
       <c r="B7" s="28">
         <v>3</v>
       </c>
@@ -39094,10 +39127,10 @@
       <c r="AMJ7" s="17"/>
     </row>
     <row r="8" spans="2:1024" customFormat="1">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
@@ -40177,10 +40210,10 @@
       <c r="G12" s="29"/>
     </row>
     <row r="13" spans="2:1024" s="31" customFormat="1">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
@@ -40202,10 +40235,10 @@
     </row>
     <row r="15" spans="2:1024" s="31" customFormat="1"/>
     <row r="16" spans="2:1024" s="31" customFormat="1">
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="4:6" s="31" customFormat="1"/>
     <row r="18" spans="4:6" s="31" customFormat="1">
@@ -40228,10 +40261,10 @@
     <row r="31" spans="4:6" s="31" customFormat="1"/>
     <row r="32" spans="4:6" s="31" customFormat="1"/>
     <row r="33" spans="3:6" s="31" customFormat="1">
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
     </row>
     <row r="34" spans="3:6" s="31" customFormat="1"/>
     <row r="35" spans="3:6" s="31" customFormat="1">
@@ -40250,10 +40283,10 @@
     <row r="44" spans="3:6" s="31" customFormat="1"/>
     <row r="45" spans="3:6" s="31" customFormat="1"/>
     <row r="46" spans="3:6" s="31" customFormat="1">
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
     </row>
     <row r="47" spans="3:6" s="31" customFormat="1"/>
     <row r="48" spans="3:6" s="31" customFormat="1">
@@ -40267,10 +40300,10 @@
     <row r="52" spans="3:6" s="31" customFormat="1"/>
     <row r="53" spans="3:6" s="31" customFormat="1"/>
     <row r="54" spans="3:6" s="31" customFormat="1">
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
     </row>
     <row r="55" spans="3:6" s="31" customFormat="1"/>
     <row r="56" spans="3:6" s="31" customFormat="1">
@@ -40287,10 +40320,10 @@
     <row r="63" spans="3:6" s="31" customFormat="1"/>
     <row r="64" spans="3:6" s="31" customFormat="1"/>
     <row r="65" spans="3:6" s="31" customFormat="1">
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
     </row>
     <row r="66" spans="3:6" s="31" customFormat="1"/>
     <row r="67" spans="3:6" s="31" customFormat="1">
@@ -40306,10 +40339,10 @@
     <row r="73" spans="3:6" s="31" customFormat="1"/>
     <row r="74" spans="3:6" s="31" customFormat="1"/>
     <row r="75" spans="3:6" s="31" customFormat="1">
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
     </row>
     <row r="76" spans="3:6" s="31" customFormat="1"/>
     <row r="77" spans="3:6" s="31" customFormat="1">
@@ -40338,10 +40371,10 @@
     <row r="96" s="31" customFormat="1"/>
     <row r="97" spans="3:6" s="31" customFormat="1"/>
     <row r="98" spans="3:6" s="31" customFormat="1">
-      <c r="C98" s="64"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
     </row>
     <row r="99" spans="3:6" s="31" customFormat="1"/>
     <row r="100" spans="3:6" s="31" customFormat="1">
@@ -40359,10 +40392,10 @@
     <row r="108" spans="3:6" s="31" customFormat="1"/>
     <row r="109" spans="3:6" s="31" customFormat="1"/>
     <row r="110" spans="3:6" s="31" customFormat="1">
-      <c r="C110" s="64"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="63"/>
     </row>
     <row r="111" spans="3:6" s="31" customFormat="1"/>
     <row r="112" spans="3:6" s="31" customFormat="1">
@@ -40384,10 +40417,10 @@
     <row r="124" spans="3:6" s="31" customFormat="1"/>
     <row r="125" spans="3:6" s="31" customFormat="1"/>
     <row r="126" spans="3:6" s="31" customFormat="1">
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="64"/>
-      <c r="F126" s="64"/>
+      <c r="C126" s="63"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="63"/>
+      <c r="F126" s="63"/>
     </row>
     <row r="127" spans="3:6" s="31" customFormat="1"/>
     <row r="128" spans="3:6" s="31" customFormat="1">
@@ -40505,36 +40538,36 @@
   <dimension ref="A2:AMJ213"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="17" customWidth="1"/>
     <col min="2" max="2" width="3" style="17" customWidth="1"/>
-    <col min="3" max="3" width="74.140625" style="17" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" style="17" customWidth="1"/>
-    <col min="8" max="1024" width="11.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="74.109375" style="17" customWidth="1"/>
+    <col min="4" max="6" width="11.88671875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" style="17" customWidth="1"/>
+    <col min="8" max="1024" width="11.88671875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66" t="s">
+    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="25" t="s">
         <v>50</v>
       </c>
@@ -40544,13 +40577,13 @@
       <c r="F3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="27"/>
@@ -40614,10 +40647,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9"/>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -40681,7 +40714,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" ht="25.5">
+    <row r="14" spans="1:7" ht="26.4">
       <c r="A14"/>
       <c r="B14" s="28">
         <v>5</v>
@@ -40696,7 +40729,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="39.6">
       <c r="A15"/>
       <c r="B15" s="28">
         <v>6</v>
@@ -40704,14 +40737,16 @@
       <c r="C15" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="30"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
+      <c r="G15" s="29" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" ht="38.25">
+    <row r="16" spans="1:7" ht="39.6">
       <c r="A16"/>
       <c r="B16" s="28">
         <v>7</v>
@@ -40719,18 +40754,20 @@
       <c r="C16" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="30"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="29"/>
+      <c r="G16" s="29" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="2:7" s="31" customFormat="1">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="71"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -40796,10 +40833,10 @@
     <row r="23" spans="2:7" s="31" customFormat="1"/>
     <row r="24" spans="2:7" s="31" customFormat="1"/>
     <row r="25" spans="2:7" s="31" customFormat="1">
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
     </row>
     <row r="26" spans="2:7" s="31" customFormat="1"/>
     <row r="27" spans="2:7" s="31" customFormat="1">
@@ -40818,10 +40855,10 @@
     <row r="36" spans="3:6" s="31" customFormat="1"/>
     <row r="37" spans="3:6" s="31" customFormat="1"/>
     <row r="38" spans="3:6" s="31" customFormat="1">
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
     </row>
     <row r="39" spans="3:6" s="31" customFormat="1"/>
     <row r="40" spans="3:6" s="31" customFormat="1">
@@ -40835,10 +40872,10 @@
     <row r="44" spans="3:6" s="31" customFormat="1"/>
     <row r="45" spans="3:6" s="31" customFormat="1"/>
     <row r="46" spans="3:6" s="31" customFormat="1">
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
     </row>
     <row r="47" spans="3:6" s="31" customFormat="1"/>
     <row r="48" spans="3:6" s="31" customFormat="1">
@@ -40855,10 +40892,10 @@
     <row r="55" spans="3:6" s="31" customFormat="1"/>
     <row r="56" spans="3:6" s="31" customFormat="1"/>
     <row r="57" spans="3:6" s="31" customFormat="1">
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
     </row>
     <row r="58" spans="3:6" s="31" customFormat="1"/>
     <row r="59" spans="3:6" s="31" customFormat="1">
@@ -40874,10 +40911,10 @@
     <row r="65" spans="3:6" s="31" customFormat="1"/>
     <row r="66" spans="3:6" s="31" customFormat="1"/>
     <row r="67" spans="3:6" s="31" customFormat="1">
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
     </row>
     <row r="68" spans="3:6" s="31" customFormat="1"/>
     <row r="69" spans="3:6" s="31" customFormat="1">
@@ -40906,10 +40943,10 @@
     <row r="88" spans="3:6" s="31" customFormat="1"/>
     <row r="89" spans="3:6" s="31" customFormat="1"/>
     <row r="90" spans="3:6" s="31" customFormat="1">
-      <c r="C90" s="64"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
     </row>
     <row r="91" spans="3:6" s="31" customFormat="1"/>
     <row r="92" spans="3:6" s="31" customFormat="1">
@@ -40927,10 +40964,10 @@
     <row r="100" spans="3:6" s="31" customFormat="1"/>
     <row r="101" spans="3:6" s="31" customFormat="1"/>
     <row r="102" spans="3:6" s="31" customFormat="1">
-      <c r="C102" s="64"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="63"/>
     </row>
     <row r="103" spans="3:6" s="31" customFormat="1"/>
     <row r="104" spans="3:6" s="31" customFormat="1">
@@ -40952,10 +40989,10 @@
     <row r="116" spans="3:6" s="31" customFormat="1"/>
     <row r="117" spans="3:6" s="31" customFormat="1"/>
     <row r="118" spans="3:6" s="31" customFormat="1">
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="64"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="63"/>
     </row>
     <row r="119" spans="3:6" s="31" customFormat="1"/>
     <row r="120" spans="3:6" s="31" customFormat="1">
@@ -41084,143 +41121,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="1024" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="1024" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15.6" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="41" t="s">
+    <row r="5" spans="2:8" ht="28.8">
+      <c r="B5" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="45">
+    <row r="6" spans="2:8" ht="43.2">
       <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>116</v>
+      <c r="C6" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>112</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="46" t="s">
         <v>120</v>
       </c>
+      <c r="H6" s="45" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" ht="30">
+    <row r="7" spans="2:8" ht="28.8">
       <c r="B7" s="16">
         <v>2</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>121</v>
+      <c r="C7" s="45" t="s">
+        <v>122</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="2:8" ht="60">
+    <row r="8" spans="2:8" ht="57.6">
       <c r="B8" s="16">
         <v>3</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>122</v>
+      <c r="C8" s="45" t="s">
+        <v>123</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="16"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+    <row r="9" spans="2:8" ht="39.6">
+      <c r="B9" s="16">
+        <v>4</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="16"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+    <row r="10" spans="2:8" ht="66">
+      <c r="B10" s="16">
+        <v>5</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="2:8">

--- a/qualtcom/Procesos/Calidad/Checklist_Auditoría-150625.xlsx
+++ b/qualtcom/Procesos/Calidad/Checklist_Auditoría-150625.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\qtp\qualtcom\Procesos\Calidad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="588" windowWidth="15612" windowHeight="7092"/>
+    <workbookView xWindow="420" yWindow="585" windowWidth="15615" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Funcional" sheetId="5" r:id="rId5"/>
     <sheet name="No Conformidades" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -897,6 +902,24 @@
     <xf numFmtId="165" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -962,24 +985,6 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1053,7 +1058,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1088,7 +1093,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1299,93 +1304,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="1" customWidth="1"/>
-    <col min="9" max="1024" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="11.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="2" spans="1:6" ht="15.6">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="2"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6">
-      <c r="B4" s="49" t="s">
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="B4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
     </row>
-    <row r="6" spans="1:6" ht="13.95" customHeight="1">
+    <row r="6" spans="1:6" ht="13.9" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
@@ -1429,11 +1434,11 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1">
@@ -1476,40 +1481,40 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B20" s="73" t="str">
+      <c r="B20" s="49" t="str">
         <f>Producto!B26</f>
         <v>Estimación</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="50">
         <f>COUNTA(Producto!C28:C33)</f>
         <v>6</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="51">
         <f>COUNTIF((Producto!C28:C33),"x")/(COUNTIF((Producto!C28:C33),"x")+COUNTIF((Producto!D28:D33),"x"))</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B21" s="76" t="str">
+      <c r="B21" s="52" t="str">
         <f>Producto!B35</f>
         <v xml:space="preserve">Ticket de servicio </v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="53">
         <f>COUNTA(Producto!C37:C43)</f>
         <v>5</v>
       </c>
-      <c r="D21" s="78">
-        <f>COUNTIF((Producto!C37:C43),"x")/(COUNTIF((Producto!C37:C43),"x")+COUNTIF((Producto!C37:C43),"x"))</f>
-        <v>0.5</v>
+      <c r="D21" s="54">
+        <f>COUNTIF((Producto!C37:C43),"x")/(COUNTIF((Producto!C37:C43),"x")+COUNTIF((Producto!D37:D43),"x"))</f>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="19.5" customHeight="1"/>
-    <row r="23" spans="2:8" s="5" customFormat="1" ht="15.6">
-      <c r="B23" s="49" t="s">
+    <row r="23" spans="2:8" s="5" customFormat="1" ht="15.75">
+      <c r="B23" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -1526,7 +1531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="5" customFormat="1" ht="13.8">
+    <row r="25" spans="2:8" s="5" customFormat="1" ht="12.75">
       <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="5" customFormat="1" ht="13.8">
+    <row r="26" spans="2:8" s="5" customFormat="1" ht="12.75">
       <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
@@ -1552,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="5" customFormat="1" ht="13.8">
+    <row r="27" spans="2:8" s="5" customFormat="1" ht="12.75">
       <c r="B27" s="8" t="s">
         <v>14</v>
       </c>
@@ -1565,22 +1570,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="5" customFormat="1" ht="13.8">
+    <row r="28" spans="2:8" s="5" customFormat="1" ht="12.75">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="2:8" s="5" customFormat="1" ht="13.95" customHeight="1"/>
-    <row r="30" spans="2:8" s="5" customFormat="1" ht="14.4" customHeight="1">
-      <c r="B30" s="49" t="s">
+    <row r="29" spans="2:8" s="5" customFormat="1" ht="13.9" customHeight="1"/>
+    <row r="30" spans="2:8" s="5" customFormat="1" ht="14.45" customHeight="1">
+      <c r="B30" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="2:8" s="5" customFormat="1" ht="13.8">
+    <row r="31" spans="2:8" s="5" customFormat="1" ht="12.75">
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
@@ -1592,7 +1597,7 @@
       </c>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="2:8" s="5" customFormat="1" ht="13.8">
+    <row r="32" spans="2:8" s="5" customFormat="1" ht="12.75">
       <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
@@ -1606,7 +1611,7 @@
       </c>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="2:4" s="5" customFormat="1" ht="13.8">
+    <row r="33" spans="2:4" s="5" customFormat="1" ht="12.75">
       <c r="B33" s="8" t="s">
         <v>17</v>
       </c>
@@ -1619,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="5" customFormat="1" ht="13.8">
+    <row r="34" spans="2:4" s="5" customFormat="1" ht="12.75">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -1632,8 +1637,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="5" customFormat="1" ht="13.8"/>
-    <row r="36" spans="2:4" s="5" customFormat="1" ht="13.8"/>
+    <row r="35" spans="2:4" s="5" customFormat="1" ht="12.75"/>
+    <row r="36" spans="2:4" s="5" customFormat="1" ht="12.75"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B11:D11"/>
@@ -1661,29 +1666,29 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="17" customWidth="1"/>
     <col min="2" max="2" width="3" style="17" customWidth="1"/>
-    <col min="3" max="3" width="88.88671875" style="17" customWidth="1"/>
-    <col min="4" max="6" width="11.88671875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" style="17" customWidth="1"/>
-    <col min="8" max="1024" width="11.88671875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="88.85546875" style="17" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" style="17" customWidth="1"/>
+    <col min="8" max="1024" width="11.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1">
-      <c r="C1" s="52" t="s">
+    <row r="1" spans="1:7" ht="14.45" customHeight="1">
+      <c r="C1" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="C2" s="53"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1800,18 +1805,18 @@
       <c r="G10" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="C13" s="53"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="20" t="s">
         <v>18</v>
       </c>
@@ -1890,31 +1895,31 @@
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="17" customWidth="1"/>
-    <col min="2" max="2" width="96.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.88671875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="44.44140625" style="17" customWidth="1"/>
-    <col min="7" max="1024" width="11.88671875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="96.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" style="17" customWidth="1"/>
+    <col min="7" max="1024" width="11.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:1024">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
       <c r="F1" s="18"/>
     </row>
     <row r="2" spans="2:1024">
-      <c r="B2" s="61"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="20" t="s">
         <v>18</v>
       </c>
@@ -15300,14 +15305,14 @@
       <c r="AMJ15" s="17"/>
     </row>
     <row r="16" spans="2:1024" customFormat="1">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -16329,7 +16334,7 @@
       <c r="AMJ16" s="17"/>
     </row>
     <row r="17" spans="2:1024" customFormat="1">
-      <c r="B17" s="61"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="20" t="s">
         <v>18</v>
       </c>
@@ -25588,14 +25593,14 @@
       <c r="AMJ25" s="17"/>
     </row>
     <row r="26" spans="2:1024" customFormat="1">
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="18"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -26617,7 +26622,7 @@
       <c r="AMJ26" s="17"/>
     </row>
     <row r="27" spans="2:1024" customFormat="1" ht="18" customHeight="1">
-      <c r="B27" s="61"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="20" t="s">
         <v>18</v>
       </c>
@@ -32805,18 +32810,18 @@
       <c r="F33" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="59"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="B36" s="57"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="42" t="s">
         <v>18</v>
       </c>
@@ -32826,7 +32831,7 @@
       <c r="E36" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="59"/>
+      <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:6">
       <c r="B37" s="43" t="s">
@@ -32872,7 +32877,7 @@
       <c r="E40" s="41"/>
       <c r="F40" s="41"/>
     </row>
-    <row r="41" spans="1:6" ht="28.8">
+    <row r="41" spans="1:6" ht="30">
       <c r="B41" s="44" t="s">
         <v>101</v>
       </c>
@@ -32885,7 +32890,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8">
+    <row r="42" spans="1:6" ht="30">
       <c r="B42" s="44" t="s">
         <v>99</v>
       </c>
@@ -32935,26 +32940,26 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="3" style="17" customWidth="1"/>
-    <col min="3" max="3" width="103.6640625" style="17" customWidth="1"/>
-    <col min="4" max="6" width="11.88671875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" style="17" customWidth="1"/>
-    <col min="8" max="1024" width="11.88671875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="103.7109375" style="17" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" style="17" customWidth="1"/>
+    <col min="8" max="1024" width="11.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:1024" customFormat="1" ht="14.4" customHeight="1">
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
+    <row r="2" spans="2:1024" customFormat="1" ht="14.45" customHeight="1">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="17"/>
@@ -33976,8 +33981,8 @@
       <c r="AMJ2" s="17"/>
     </row>
     <row r="3" spans="2:1024" customFormat="1">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="25" t="s">
         <v>50</v>
       </c>
@@ -33987,7 +33992,7 @@
       <c r="F3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="69"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -35007,10 +35012,10 @@
       <c r="AMJ3" s="17"/>
     </row>
     <row r="4" spans="2:1024" customFormat="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="27"/>
@@ -36033,7 +36038,7 @@
       <c r="AMI4" s="17"/>
       <c r="AMJ4" s="17"/>
     </row>
-    <row r="5" spans="2:1024" customFormat="1" ht="27">
+    <row r="5" spans="2:1024" customFormat="1" ht="26.25">
       <c r="B5" s="28">
         <v>1</v>
       </c>
@@ -37064,7 +37069,7 @@
       <c r="AMI5" s="17"/>
       <c r="AMJ5" s="17"/>
     </row>
-    <row r="6" spans="2:1024" customFormat="1" ht="27">
+    <row r="6" spans="2:1024" customFormat="1" ht="26.25">
       <c r="B6" s="28">
         <v>2</v>
       </c>
@@ -38095,7 +38100,7 @@
       <c r="AMI6" s="17"/>
       <c r="AMJ6" s="17"/>
     </row>
-    <row r="7" spans="2:1024" customFormat="1" ht="27">
+    <row r="7" spans="2:1024" customFormat="1" ht="26.25">
       <c r="B7" s="28">
         <v>3</v>
       </c>
@@ -39127,10 +39132,10 @@
       <c r="AMJ7" s="17"/>
     </row>
     <row r="8" spans="2:1024" customFormat="1">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
@@ -40210,10 +40215,10 @@
       <c r="G12" s="29"/>
     </row>
     <row r="13" spans="2:1024" s="31" customFormat="1">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
@@ -40235,10 +40240,10 @@
     </row>
     <row r="15" spans="2:1024" s="31" customFormat="1"/>
     <row r="16" spans="2:1024" s="31" customFormat="1">
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
     </row>
     <row r="17" spans="4:6" s="31" customFormat="1"/>
     <row r="18" spans="4:6" s="31" customFormat="1">
@@ -40261,10 +40266,10 @@
     <row r="31" spans="4:6" s="31" customFormat="1"/>
     <row r="32" spans="4:6" s="31" customFormat="1"/>
     <row r="33" spans="3:6" s="31" customFormat="1">
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
     </row>
     <row r="34" spans="3:6" s="31" customFormat="1"/>
     <row r="35" spans="3:6" s="31" customFormat="1">
@@ -40283,10 +40288,10 @@
     <row r="44" spans="3:6" s="31" customFormat="1"/>
     <row r="45" spans="3:6" s="31" customFormat="1"/>
     <row r="46" spans="3:6" s="31" customFormat="1">
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
     </row>
     <row r="47" spans="3:6" s="31" customFormat="1"/>
     <row r="48" spans="3:6" s="31" customFormat="1">
@@ -40300,10 +40305,10 @@
     <row r="52" spans="3:6" s="31" customFormat="1"/>
     <row r="53" spans="3:6" s="31" customFormat="1"/>
     <row r="54" spans="3:6" s="31" customFormat="1">
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
     </row>
     <row r="55" spans="3:6" s="31" customFormat="1"/>
     <row r="56" spans="3:6" s="31" customFormat="1">
@@ -40320,10 +40325,10 @@
     <row r="63" spans="3:6" s="31" customFormat="1"/>
     <row r="64" spans="3:6" s="31" customFormat="1"/>
     <row r="65" spans="3:6" s="31" customFormat="1">
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
     </row>
     <row r="66" spans="3:6" s="31" customFormat="1"/>
     <row r="67" spans="3:6" s="31" customFormat="1">
@@ -40339,10 +40344,10 @@
     <row r="73" spans="3:6" s="31" customFormat="1"/>
     <row r="74" spans="3:6" s="31" customFormat="1"/>
     <row r="75" spans="3:6" s="31" customFormat="1">
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
     </row>
     <row r="76" spans="3:6" s="31" customFormat="1"/>
     <row r="77" spans="3:6" s="31" customFormat="1">
@@ -40371,10 +40376,10 @@
     <row r="96" s="31" customFormat="1"/>
     <row r="97" spans="3:6" s="31" customFormat="1"/>
     <row r="98" spans="3:6" s="31" customFormat="1">
-      <c r="C98" s="63"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="63"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
     </row>
     <row r="99" spans="3:6" s="31" customFormat="1"/>
     <row r="100" spans="3:6" s="31" customFormat="1">
@@ -40392,10 +40397,10 @@
     <row r="108" spans="3:6" s="31" customFormat="1"/>
     <row r="109" spans="3:6" s="31" customFormat="1"/>
     <row r="110" spans="3:6" s="31" customFormat="1">
-      <c r="C110" s="63"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="63"/>
-      <c r="F110" s="63"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="69"/>
     </row>
     <row r="111" spans="3:6" s="31" customFormat="1"/>
     <row r="112" spans="3:6" s="31" customFormat="1">
@@ -40417,10 +40422,10 @@
     <row r="124" spans="3:6" s="31" customFormat="1"/>
     <row r="125" spans="3:6" s="31" customFormat="1"/>
     <row r="126" spans="3:6" s="31" customFormat="1">
-      <c r="C126" s="63"/>
-      <c r="D126" s="63"/>
-      <c r="E126" s="63"/>
-      <c r="F126" s="63"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="69"/>
+      <c r="F126" s="69"/>
     </row>
     <row r="127" spans="3:6" s="31" customFormat="1"/>
     <row r="128" spans="3:6" s="31" customFormat="1">
@@ -40510,6 +40515,11 @@
     <row r="208" s="31" customFormat="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C126:F126"/>
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -40521,11 +40531,6 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C126:F126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.1437007874015748" bottom="1.1437007874015748" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -40541,33 +40546,33 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="17" customWidth="1"/>
     <col min="2" max="2" width="3" style="17" customWidth="1"/>
-    <col min="3" max="3" width="74.109375" style="17" customWidth="1"/>
-    <col min="4" max="6" width="11.88671875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" style="17" customWidth="1"/>
-    <col min="8" max="1024" width="11.88671875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="74.140625" style="17" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" style="17" customWidth="1"/>
+    <col min="8" max="1024" width="11.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1">
-      <c r="B2" s="64"/>
-      <c r="C2" s="65" t="s">
+    <row r="2" spans="1:7" ht="14.45" customHeight="1">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="25" t="s">
         <v>50</v>
       </c>
@@ -40577,13 +40582,13 @@
       <c r="F3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="69"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="27"/>
@@ -40647,10 +40652,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -40714,7 +40719,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" ht="26.4">
+    <row r="14" spans="1:7" ht="25.5">
       <c r="A14"/>
       <c r="B14" s="28">
         <v>5</v>
@@ -40729,7 +40734,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" ht="39.6">
+    <row r="15" spans="1:7" ht="38.25">
       <c r="A15"/>
       <c r="B15" s="28">
         <v>6</v>
@@ -40746,7 +40751,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39.6">
+    <row r="16" spans="1:7" ht="38.25">
       <c r="A16"/>
       <c r="B16" s="28">
         <v>7</v>
@@ -40764,10 +40769,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" s="31" customFormat="1">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -40833,10 +40838,10 @@
     <row r="23" spans="2:7" s="31" customFormat="1"/>
     <row r="24" spans="2:7" s="31" customFormat="1"/>
     <row r="25" spans="2:7" s="31" customFormat="1">
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
     </row>
     <row r="26" spans="2:7" s="31" customFormat="1"/>
     <row r="27" spans="2:7" s="31" customFormat="1">
@@ -40855,10 +40860,10 @@
     <row r="36" spans="3:6" s="31" customFormat="1"/>
     <row r="37" spans="3:6" s="31" customFormat="1"/>
     <row r="38" spans="3:6" s="31" customFormat="1">
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
     </row>
     <row r="39" spans="3:6" s="31" customFormat="1"/>
     <row r="40" spans="3:6" s="31" customFormat="1">
@@ -40872,10 +40877,10 @@
     <row r="44" spans="3:6" s="31" customFormat="1"/>
     <row r="45" spans="3:6" s="31" customFormat="1"/>
     <row r="46" spans="3:6" s="31" customFormat="1">
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
     </row>
     <row r="47" spans="3:6" s="31" customFormat="1"/>
     <row r="48" spans="3:6" s="31" customFormat="1">
@@ -40892,10 +40897,10 @@
     <row r="55" spans="3:6" s="31" customFormat="1"/>
     <row r="56" spans="3:6" s="31" customFormat="1"/>
     <row r="57" spans="3:6" s="31" customFormat="1">
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
     </row>
     <row r="58" spans="3:6" s="31" customFormat="1"/>
     <row r="59" spans="3:6" s="31" customFormat="1">
@@ -40911,10 +40916,10 @@
     <row r="65" spans="3:6" s="31" customFormat="1"/>
     <row r="66" spans="3:6" s="31" customFormat="1"/>
     <row r="67" spans="3:6" s="31" customFormat="1">
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
     </row>
     <row r="68" spans="3:6" s="31" customFormat="1"/>
     <row r="69" spans="3:6" s="31" customFormat="1">
@@ -40943,10 +40948,10 @@
     <row r="88" spans="3:6" s="31" customFormat="1"/>
     <row r="89" spans="3:6" s="31" customFormat="1"/>
     <row r="90" spans="3:6" s="31" customFormat="1">
-      <c r="C90" s="63"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
     </row>
     <row r="91" spans="3:6" s="31" customFormat="1"/>
     <row r="92" spans="3:6" s="31" customFormat="1">
@@ -40964,10 +40969,10 @@
     <row r="100" spans="3:6" s="31" customFormat="1"/>
     <row r="101" spans="3:6" s="31" customFormat="1"/>
     <row r="102" spans="3:6" s="31" customFormat="1">
-      <c r="C102" s="63"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="63"/>
-      <c r="F102" s="63"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
     </row>
     <row r="103" spans="3:6" s="31" customFormat="1"/>
     <row r="104" spans="3:6" s="31" customFormat="1">
@@ -40989,10 +40994,10 @@
     <row r="116" spans="3:6" s="31" customFormat="1"/>
     <row r="117" spans="3:6" s="31" customFormat="1"/>
     <row r="118" spans="3:6" s="31" customFormat="1">
-      <c r="C118" s="63"/>
-      <c r="D118" s="63"/>
-      <c r="E118" s="63"/>
-      <c r="F118" s="63"/>
+      <c r="C118" s="69"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="69"/>
     </row>
     <row r="119" spans="3:6" s="31" customFormat="1"/>
     <row r="120" spans="3:6" s="31" customFormat="1">
@@ -41095,12 +41100,6 @@
     <row r="213" s="31" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="C90:F90"/>
     <mergeCell ref="C102:F102"/>
     <mergeCell ref="C118:F118"/>
@@ -41110,6 +41109,12 @@
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="C57:F57"/>
     <mergeCell ref="C67:F67"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.1437007874015748" bottom="1.1437007874015748" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -41125,40 +41130,40 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" customWidth="1"/>
-    <col min="2" max="2" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="1024" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="1024" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15.6" customHeight="1">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
     </row>
-    <row r="5" spans="2:8" ht="28.8">
+    <row r="5" spans="2:8" ht="30">
       <c r="B5" s="40" t="s">
         <v>69</v>
       </c>
@@ -41181,7 +41186,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="43.2">
+    <row r="6" spans="2:8" ht="45">
       <c r="B6" s="16">
         <v>1</v>
       </c>
@@ -41204,7 +41209,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="28.8">
+    <row r="7" spans="2:8" ht="30">
       <c r="B7" s="16">
         <v>2</v>
       </c>
@@ -41223,7 +41228,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="2:8" ht="57.6">
+    <row r="8" spans="2:8" ht="60">
       <c r="B8" s="16">
         <v>3</v>
       </c>
@@ -41242,7 +41247,7 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="39.6">
+    <row r="9" spans="2:8" ht="38.25">
       <c r="B9" s="16">
         <v>4</v>
       </c>
@@ -41261,7 +41266,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="2:8" ht="66">
+    <row r="10" spans="2:8" ht="63.75">
       <c r="B10" s="16">
         <v>5</v>
       </c>

--- a/qualtcom/Procesos/Calidad/Checklist_Auditoría-150625.xlsx
+++ b/qualtcom/Procesos/Calidad/Checklist_Auditoría-150625.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
   <si>
     <t>DATOS GENERALES</t>
   </si>
@@ -383,9 +383,6 @@
     <t>Fidel Reyna</t>
   </si>
   <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t>Cerrada</t>
   </si>
   <si>
@@ -408,6 +405,21 @@
   </si>
   <si>
     <t>Junio 25,2015</t>
+  </si>
+  <si>
+    <t>Junio 29,2015</t>
+  </si>
+  <si>
+    <t>Junio 29 2015</t>
+  </si>
+  <si>
+    <t>Quedó resuelta al marcar el faltante</t>
+  </si>
+  <si>
+    <t>Se realizó el respaldo por equipo en la fecha estipulada</t>
+  </si>
+  <si>
+    <t>Se realizó la limpieza por equipo en la fecha estipulada</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -40515,11 +40527,6 @@
     <row r="208" s="31" customFormat="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C126:F126"/>
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -40531,6 +40538,11 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C126:F126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.1437007874015748" bottom="1.1437007874015748" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -41100,6 +41112,12 @@
     <row r="213" s="31" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="C90:F90"/>
     <mergeCell ref="C102:F102"/>
     <mergeCell ref="C118:F118"/>
@@ -41109,12 +41127,6 @@
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="C57:F57"/>
     <mergeCell ref="C67:F67"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.1437007874015748" bottom="1.1437007874015748" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -41126,8 +41138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -41200,13 +41212,13 @@
         <v>112</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30">
@@ -41214,76 +41226,92 @@
         <v>2</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="G7" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="45" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="60">
       <c r="B8" s="16">
         <v>3</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="G8" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="45" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" ht="38.25">
+    <row r="9" spans="2:8" ht="45">
       <c r="B9" s="16">
         <v>4</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="G9" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="45" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="63.75">
       <c r="B10" s="16">
         <v>5</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="G10" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="45" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="16"/>
